--- a/NatmiData/natmiOut_TPM/OldD4/LR-pairs_lrc2p/Efnb3-Ephb4.xlsx
+++ b/NatmiData/natmiOut_TPM/OldD4/LR-pairs_lrc2p/Efnb3-Ephb4.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="25">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -83,9 +83,6 @@
   </si>
   <si>
     <t>MuSCs</t>
-  </si>
-  <si>
-    <t>Resolving-Mac</t>
   </si>
   <si>
     <t>Efnb3</t>
@@ -449,7 +446,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T13"/>
+  <dimension ref="A1:T10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -522,31 +519,31 @@
         <v>20</v>
       </c>
       <c r="B2" t="s">
+        <v>23</v>
+      </c>
+      <c r="C2" t="s">
         <v>24</v>
-      </c>
-      <c r="C2" t="s">
-        <v>25</v>
       </c>
       <c r="D2" t="s">
         <v>20</v>
       </c>
       <c r="E2">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F2">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G2">
-        <v>0.08736233333333332</v>
+        <v>0.071327</v>
       </c>
       <c r="H2">
-        <v>0.262087</v>
+        <v>0.213981</v>
       </c>
       <c r="I2">
-        <v>0.05767651158852534</v>
+        <v>0.1064107741026886</v>
       </c>
       <c r="J2">
-        <v>0.07409173752753134</v>
+        <v>0.1213845878939322</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -555,28 +552,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>34.52018166666667</v>
+        <v>26.07194833333334</v>
       </c>
       <c r="N2">
-        <v>103.560545</v>
+        <v>78.215845</v>
       </c>
       <c r="O2">
-        <v>0.7811694070883366</v>
+        <v>0.7595928012803946</v>
       </c>
       <c r="P2">
-        <v>0.8076479349223241</v>
+        <v>0.7818221335728009</v>
       </c>
       <c r="Q2">
-        <v>3.015763617490555</v>
+        <v>1.859633858771667</v>
       </c>
       <c r="R2">
-        <v>27.14187255741499</v>
+        <v>16.736704728945</v>
       </c>
       <c r="S2">
-        <v>0.04505512636053191</v>
+        <v>0.08082885798707648</v>
       </c>
       <c r="T2">
-        <v>0.05984003880891756</v>
+        <v>0.09490115749008927</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -584,31 +581,31 @@
         <v>20</v>
       </c>
       <c r="B3" t="s">
+        <v>23</v>
+      </c>
+      <c r="C3" t="s">
         <v>24</v>
-      </c>
-      <c r="C3" t="s">
-        <v>25</v>
       </c>
       <c r="D3" t="s">
         <v>21</v>
       </c>
       <c r="E3">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F3">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G3">
-        <v>0.08736233333333332</v>
+        <v>0.071327</v>
       </c>
       <c r="H3">
-        <v>0.262087</v>
+        <v>0.213981</v>
       </c>
       <c r="I3">
-        <v>0.05767651158852534</v>
+        <v>0.1064107741026886</v>
       </c>
       <c r="J3">
-        <v>0.07409173752753134</v>
+        <v>0.1213845878939322</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -623,22 +620,22 @@
         <v>15.971694</v>
       </c>
       <c r="O3">
-        <v>0.1204763718863815</v>
+        <v>0.155109029208254</v>
       </c>
       <c r="P3">
-        <v>0.1245600404701547</v>
+        <v>0.1596482641062294</v>
       </c>
       <c r="Q3">
-        <v>0.4651081517086666</v>
+        <v>0.379737672646</v>
       </c>
       <c r="R3">
-        <v>4.185973365378</v>
+        <v>3.417639053814</v>
       </c>
       <c r="S3">
-        <v>0.006948656859248369</v>
+        <v>0.01650527186836684</v>
       </c>
       <c r="T3">
-        <v>0.009228869824933383</v>
+        <v>0.01937883874651631</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -646,31 +643,31 @@
         <v>20</v>
       </c>
       <c r="B4" t="s">
+        <v>23</v>
+      </c>
+      <c r="C4" t="s">
         <v>24</v>
-      </c>
-      <c r="C4" t="s">
-        <v>25</v>
       </c>
       <c r="D4" t="s">
         <v>22</v>
       </c>
       <c r="E4">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F4">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G4">
-        <v>0.08736233333333332</v>
+        <v>0.071327</v>
       </c>
       <c r="H4">
-        <v>0.262087</v>
+        <v>0.213981</v>
       </c>
       <c r="I4">
-        <v>0.05767651158852534</v>
+        <v>0.1064107741026886</v>
       </c>
       <c r="J4">
-        <v>0.07409173752753134</v>
+        <v>0.1213845878939322</v>
       </c>
       <c r="K4">
         <v>2</v>
@@ -679,28 +676,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>4.346311500000001</v>
+        <v>2.927739</v>
       </c>
       <c r="N4">
-        <v>8.692623000000001</v>
+        <v>5.855478</v>
       </c>
       <c r="O4">
-        <v>0.09835422102528196</v>
+        <v>0.08529816951135136</v>
       </c>
       <c r="P4">
-        <v>0.06779202460752112</v>
+        <v>0.05852960232096958</v>
       </c>
       <c r="Q4">
-        <v>0.3797039140335</v>
+        <v>0.208826839653</v>
       </c>
       <c r="R4">
-        <v>2.278223484201</v>
+        <v>1.252961037918</v>
       </c>
       <c r="S4">
-        <v>0.005672728368745058</v>
+        <v>0.009076644247245247</v>
       </c>
       <c r="T4">
-        <v>0.005022828893680401</v>
+        <v>0.007104591657326632</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -708,10 +705,10 @@
         <v>21</v>
       </c>
       <c r="B5" t="s">
+        <v>23</v>
+      </c>
+      <c r="C5" t="s">
         <v>24</v>
-      </c>
-      <c r="C5" t="s">
-        <v>25</v>
       </c>
       <c r="D5" t="s">
         <v>20</v>
@@ -729,10 +726,10 @@
         <v>1.052732</v>
       </c>
       <c r="I5">
-        <v>0.2316708169333521</v>
+        <v>0.5235138962929958</v>
       </c>
       <c r="J5">
-        <v>0.2976063026049867</v>
+        <v>0.5971812449832231</v>
       </c>
       <c r="K5">
         <v>3</v>
@@ -741,28 +738,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>34.52018166666667</v>
+        <v>26.07194833333334</v>
       </c>
       <c r="N5">
-        <v>103.560545</v>
+        <v>78.215845</v>
       </c>
       <c r="O5">
-        <v>0.7811694070883366</v>
+        <v>0.7595928012803946</v>
       </c>
       <c r="P5">
-        <v>0.8076479349223241</v>
+        <v>0.7818221335728009</v>
       </c>
       <c r="Q5">
-        <v>12.11349996210444</v>
+        <v>9.14892477094889</v>
       </c>
       <c r="R5">
-        <v>109.02149965894</v>
+        <v>82.34032293854</v>
       </c>
       <c r="S5">
-        <v>0.1809741547034973</v>
+        <v>0.3976573869944107</v>
       </c>
       <c r="T5">
-        <v>0.2403611157187858</v>
+        <v>0.466889515082445</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -770,10 +767,10 @@
         <v>21</v>
       </c>
       <c r="B6" t="s">
+        <v>23</v>
+      </c>
+      <c r="C6" t="s">
         <v>24</v>
-      </c>
-      <c r="C6" t="s">
-        <v>25</v>
       </c>
       <c r="D6" t="s">
         <v>21</v>
@@ -791,10 +788,10 @@
         <v>1.052732</v>
       </c>
       <c r="I6">
-        <v>0.2316708169333521</v>
+        <v>0.5235138962929958</v>
       </c>
       <c r="J6">
-        <v>0.2976063026049867</v>
+        <v>0.5971812449832231</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -809,10 +806,10 @@
         <v>15.971694</v>
       </c>
       <c r="O6">
-        <v>0.1204763718863815</v>
+        <v>0.155109029208254</v>
       </c>
       <c r="P6">
-        <v>0.1245600404701547</v>
+        <v>0.1596482641062294</v>
       </c>
       <c r="Q6">
         <v>1.868212596445333</v>
@@ -821,10 +818,10 @@
         <v>16.813913368008</v>
       </c>
       <c r="S6">
-        <v>0.02791085949608433</v>
+        <v>0.08120173223103716</v>
       </c>
       <c r="T6">
-        <v>0.03706985309665024</v>
+        <v>0.09533894911836849</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -832,10 +829,10 @@
         <v>21</v>
       </c>
       <c r="B7" t="s">
+        <v>23</v>
+      </c>
+      <c r="C7" t="s">
         <v>24</v>
-      </c>
-      <c r="C7" t="s">
-        <v>25</v>
       </c>
       <c r="D7" t="s">
         <v>22</v>
@@ -853,10 +850,10 @@
         <v>1.052732</v>
       </c>
       <c r="I7">
-        <v>0.2316708169333521</v>
+        <v>0.5235138962929958</v>
       </c>
       <c r="J7">
-        <v>0.2976063026049867</v>
+        <v>0.5971812449832231</v>
       </c>
       <c r="K7">
         <v>2</v>
@@ -865,28 +862,28 @@
         <v>1</v>
       </c>
       <c r="M7">
-        <v>4.346311500000001</v>
+        <v>2.927739</v>
       </c>
       <c r="N7">
-        <v>8.692623000000001</v>
+        <v>5.855478</v>
       </c>
       <c r="O7">
-        <v>0.09835422102528196</v>
+        <v>0.08529816951135136</v>
       </c>
       <c r="P7">
-        <v>0.06779202460752112</v>
+        <v>0.05852960232096958</v>
       </c>
       <c r="Q7">
-        <v>1.525167066006</v>
+        <v>1.027374844316</v>
       </c>
       <c r="R7">
-        <v>9.151002396036001</v>
+        <v>6.164249065896</v>
       </c>
       <c r="S7">
-        <v>0.02278580273377055</v>
+        <v>0.04465477706754797</v>
       </c>
       <c r="T7">
-        <v>0.02017533378955063</v>
+        <v>0.03495278078240956</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -894,31 +891,31 @@
         <v>22</v>
       </c>
       <c r="B8" t="s">
+        <v>23</v>
+      </c>
+      <c r="C8" t="s">
         <v>24</v>
-      </c>
-      <c r="C8" t="s">
-        <v>25</v>
       </c>
       <c r="D8" t="s">
         <v>20</v>
       </c>
       <c r="E8">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F8">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="G8">
-        <v>1.0067545</v>
+        <v>0.248061</v>
       </c>
       <c r="H8">
-        <v>2.013509</v>
+        <v>0.496122</v>
       </c>
       <c r="I8">
-        <v>0.6646581583907257</v>
+        <v>0.3700753296043157</v>
       </c>
       <c r="J8">
-        <v>0.569217017010848</v>
+        <v>0.2814341671228447</v>
       </c>
       <c r="K8">
         <v>3</v>
@@ -927,28 +924,28 @@
         <v>1</v>
       </c>
       <c r="M8">
-        <v>34.52018166666667</v>
+        <v>26.07194833333334</v>
       </c>
       <c r="N8">
-        <v>103.560545</v>
+        <v>78.215845</v>
       </c>
       <c r="O8">
-        <v>0.7811694070883366</v>
+        <v>0.7595928012803946</v>
       </c>
       <c r="P8">
-        <v>0.8076479349223241</v>
+        <v>0.7818221335728009</v>
       </c>
       <c r="Q8">
-        <v>34.75334823373417</v>
+        <v>6.467433575515001</v>
       </c>
       <c r="R8">
-        <v>208.520089402405</v>
+        <v>38.80460145309</v>
       </c>
       <c r="S8">
-        <v>0.5192106195065089</v>
+        <v>0.2811065562989075</v>
       </c>
       <c r="T8">
-        <v>0.4597269483114568</v>
+        <v>0.2200314610002667</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -956,31 +953,31 @@
         <v>22</v>
       </c>
       <c r="B9" t="s">
+        <v>23</v>
+      </c>
+      <c r="C9" t="s">
         <v>24</v>
-      </c>
-      <c r="C9" t="s">
-        <v>25</v>
       </c>
       <c r="D9" t="s">
         <v>21</v>
       </c>
       <c r="E9">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F9">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="G9">
-        <v>1.0067545</v>
+        <v>0.248061</v>
       </c>
       <c r="H9">
-        <v>2.013509</v>
+        <v>0.496122</v>
       </c>
       <c r="I9">
-        <v>0.6646581583907257</v>
+        <v>0.3700753296043157</v>
       </c>
       <c r="J9">
-        <v>0.569217017010848</v>
+        <v>0.2814341671228447</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -995,22 +992,22 @@
         <v>15.971694</v>
       </c>
       <c r="O9">
-        <v>0.1204763718863815</v>
+        <v>0.155109029208254</v>
       </c>
       <c r="P9">
-        <v>0.1245600404701547</v>
+        <v>0.1596482641062294</v>
       </c>
       <c r="Q9">
-        <v>5.359858269041</v>
+        <v>1.320651461778</v>
       </c>
       <c r="R9">
-        <v>32.159149614246</v>
+        <v>7.923908770668</v>
       </c>
       <c r="S9">
-        <v>0.08007560346759851</v>
+        <v>0.05740202510885004</v>
       </c>
       <c r="T9">
-        <v>0.07090169467517195</v>
+        <v>0.04493047624134462</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1018,31 +1015,31 @@
         <v>22</v>
       </c>
       <c r="B10" t="s">
+        <v>23</v>
+      </c>
+      <c r="C10" t="s">
         <v>24</v>
-      </c>
-      <c r="C10" t="s">
-        <v>25</v>
       </c>
       <c r="D10" t="s">
         <v>22</v>
       </c>
       <c r="E10">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F10">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="G10">
-        <v>1.0067545</v>
+        <v>0.248061</v>
       </c>
       <c r="H10">
-        <v>2.013509</v>
+        <v>0.496122</v>
       </c>
       <c r="I10">
-        <v>0.6646581583907257</v>
+        <v>0.3700753296043157</v>
       </c>
       <c r="J10">
-        <v>0.569217017010848</v>
+        <v>0.2814341671228447</v>
       </c>
       <c r="K10">
         <v>2</v>
@@ -1051,214 +1048,28 @@
         <v>1</v>
       </c>
       <c r="M10">
-        <v>4.346311500000001</v>
+        <v>2.927739</v>
       </c>
       <c r="N10">
-        <v>8.692623000000001</v>
+        <v>5.855478</v>
       </c>
       <c r="O10">
-        <v>0.09835422102528196</v>
+        <v>0.08529816951135136</v>
       </c>
       <c r="P10">
-        <v>0.06779202460752112</v>
+        <v>0.05852960232096958</v>
       </c>
       <c r="Q10">
-        <v>4.375668661026751</v>
+        <v>0.7262578640789999</v>
       </c>
       <c r="R10">
-        <v>17.502674644107</v>
+        <v>2.905031456316</v>
       </c>
       <c r="S10">
-        <v>0.0653719354166183</v>
+        <v>0.03156674819655815</v>
       </c>
       <c r="T10">
-        <v>0.03858837402421918</v>
-      </c>
-    </row>
-    <row r="11" spans="1:20">
-      <c r="A11" t="s">
-        <v>23</v>
-      </c>
-      <c r="B11" t="s">
-        <v>24</v>
-      </c>
-      <c r="C11" t="s">
-        <v>25</v>
-      </c>
-      <c r="D11" t="s">
-        <v>20</v>
-      </c>
-      <c r="E11">
-        <v>1</v>
-      </c>
-      <c r="F11">
-        <v>0.3333333333333333</v>
-      </c>
-      <c r="G11">
-        <v>0.06966766666666667</v>
-      </c>
-      <c r="H11">
-        <v>0.209003</v>
-      </c>
-      <c r="I11">
-        <v>0.0459945130873968</v>
-      </c>
-      <c r="J11">
-        <v>0.05908494285663401</v>
-      </c>
-      <c r="K11">
-        <v>3</v>
-      </c>
-      <c r="L11">
-        <v>1</v>
-      </c>
-      <c r="M11">
-        <v>34.52018166666667</v>
-      </c>
-      <c r="N11">
-        <v>103.560545</v>
-      </c>
-      <c r="O11">
-        <v>0.7811694070883366</v>
-      </c>
-      <c r="P11">
-        <v>0.8076479349223241</v>
-      </c>
-      <c r="Q11">
-        <v>2.404940509626111</v>
-      </c>
-      <c r="R11">
-        <v>21.644464586635</v>
-      </c>
-      <c r="S11">
-        <v>0.0359295065177985</v>
-      </c>
-      <c r="T11">
-        <v>0.04771983208316398</v>
-      </c>
-    </row>
-    <row r="12" spans="1:20">
-      <c r="A12" t="s">
-        <v>23</v>
-      </c>
-      <c r="B12" t="s">
-        <v>24</v>
-      </c>
-      <c r="C12" t="s">
-        <v>25</v>
-      </c>
-      <c r="D12" t="s">
-        <v>21</v>
-      </c>
-      <c r="E12">
-        <v>1</v>
-      </c>
-      <c r="F12">
-        <v>0.3333333333333333</v>
-      </c>
-      <c r="G12">
-        <v>0.06966766666666667</v>
-      </c>
-      <c r="H12">
-        <v>0.209003</v>
-      </c>
-      <c r="I12">
-        <v>0.0459945130873968</v>
-      </c>
-      <c r="J12">
-        <v>0.05908494285663401</v>
-      </c>
-      <c r="K12">
-        <v>3</v>
-      </c>
-      <c r="L12">
-        <v>1</v>
-      </c>
-      <c r="M12">
-        <v>5.323898</v>
-      </c>
-      <c r="N12">
-        <v>15.971694</v>
-      </c>
-      <c r="O12">
-        <v>0.1204763718863815</v>
-      </c>
-      <c r="P12">
-        <v>0.1245600404701547</v>
-      </c>
-      <c r="Q12">
-        <v>0.3709035512313333</v>
-      </c>
-      <c r="R12">
-        <v>3.338131961082</v>
-      </c>
-      <c r="S12">
-        <v>0.005541252063450256</v>
-      </c>
-      <c r="T12">
-        <v>0.007359622873399109</v>
-      </c>
-    </row>
-    <row r="13" spans="1:20">
-      <c r="A13" t="s">
-        <v>23</v>
-      </c>
-      <c r="B13" t="s">
-        <v>24</v>
-      </c>
-      <c r="C13" t="s">
-        <v>25</v>
-      </c>
-      <c r="D13" t="s">
-        <v>22</v>
-      </c>
-      <c r="E13">
-        <v>1</v>
-      </c>
-      <c r="F13">
-        <v>0.3333333333333333</v>
-      </c>
-      <c r="G13">
-        <v>0.06966766666666667</v>
-      </c>
-      <c r="H13">
-        <v>0.209003</v>
-      </c>
-      <c r="I13">
-        <v>0.0459945130873968</v>
-      </c>
-      <c r="J13">
-        <v>0.05908494285663401</v>
-      </c>
-      <c r="K13">
-        <v>2</v>
-      </c>
-      <c r="L13">
-        <v>1</v>
-      </c>
-      <c r="M13">
-        <v>4.346311500000001</v>
-      </c>
-      <c r="N13">
-        <v>8.692623000000001</v>
-      </c>
-      <c r="O13">
-        <v>0.09835422102528196</v>
-      </c>
-      <c r="P13">
-        <v>0.06779202460752112</v>
-      </c>
-      <c r="Q13">
-        <v>0.3027973808115</v>
-      </c>
-      <c r="R13">
-        <v>1.816784284869</v>
-      </c>
-      <c r="S13">
-        <v>0.004523754506148048</v>
-      </c>
-      <c r="T13">
-        <v>0.004005487900070912</v>
+        <v>0.0164722298812334</v>
       </c>
     </row>
   </sheetData>
